--- a/HW3_Excel1/HW3_114306026.xlsx
+++ b/HW3_Excel1/HW3_114306026.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29404"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\計概TA\1011\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1233FA37-4600-4CF4-8311-7196C1DF99F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45F65CBC-F8F0-4D26-BDEC-0C100F9510C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{60C2E2F6-AD98-4042-9BF5-DA3DB7B4AD4C}"/>
   </bookViews>
@@ -225,31 +225,13 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Total Scores</t>
-  </si>
-  <si>
     <t>amounts</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>pass</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>fail</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>F</t>
   </si>
   <si>
     <r>
@@ -265,6 +247,24 @@
       <t>ò</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Scores</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$J$18</c:f>
+              <c:f>工作表1!$J$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -473,7 +473,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>工作表1!$I$19:$I$23</c:f>
+              <c:f>工作表1!$I$26:$I$30</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -496,18 +496,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$J$19:$J$23</c:f>
+              <c:f>工作表1!$J$26:$J$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>181.7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>408.1</c:v>
+                  <c:v>80.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>304.89999999999998</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>66.900000000000006</c:v>
@@ -797,6 +797,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-A0D8-490A-A8B0-BC5A5A9A546C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -812,6 +817,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-A0D8-490A-A8B0-BC5A5A9A546C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -2057,15 +2067,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2429,10 +2439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9961FA0D-67BD-4FEB-B956-7740A55D5973}">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999"/>
@@ -3107,23 +3117,13 @@
       </c>
     </row>
     <row r="18" spans="3:13">
-      <c r="J18" t="s">
+      <c r="M18" t="s">
         <v>31</v>
-      </c>
-      <c r="M18" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="19" spans="3:13">
-      <c r="I19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J19">
-        <f>SUMIF(K2:K15,"A",J2:J15)</f>
-        <v>181.7</v>
-      </c>
       <c r="L19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M19">
         <f>COUNTIF(L2:L15,"pass")</f>
@@ -3131,51 +3131,67 @@
       </c>
     </row>
     <row r="20" spans="3:13">
-      <c r="I20" t="s">
-        <v>35</v>
-      </c>
-      <c r="J20">
-        <f>SUMIF(K2:K15,"B",J2:J15)</f>
-        <v>408.1</v>
-      </c>
       <c r="L20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M20">
         <f>COUNTIF(L2:L15,"fail")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="3:13">
-      <c r="I21" t="s">
-        <v>37</v>
-      </c>
-      <c r="J21">
-        <f>SUMIF(K2:K15,"C",J2:J15)</f>
-        <v>304.89999999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="3:13">
-      <c r="I22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J22">
-        <f>SUMIF(K2:K15,"D",J2:J15)</f>
-        <v>66.900000000000006</v>
-      </c>
-    </row>
-    <row r="23" spans="3:13">
-      <c r="I23" t="s">
-        <v>39</v>
-      </c>
-      <c r="J23">
-        <f>SUMIF(K2:K15,"F",J2:J15)</f>
-        <v>114.6</v>
-      </c>
-    </row>
     <row r="24" spans="3:13">
       <c r="J24" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13">
+      <c r="J25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13">
+      <c r="I26" t="s">
+        <v>36</v>
+      </c>
+      <c r="J26">
+        <f>SUMIF(K9:K22,"A",J9:J22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13">
+      <c r="I27" t="s">
+        <v>37</v>
+      </c>
+      <c r="J27">
+        <f>SUMIF(K9:K22,"B",J9:J22)</f>
+        <v>80.599999999999994</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13">
+      <c r="I28" t="s">
+        <v>38</v>
+      </c>
+      <c r="J28">
+        <f>SUMIF(K9:K22,"C",J9:J22)</f>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13">
+      <c r="I29" t="s">
+        <v>39</v>
+      </c>
+      <c r="J29">
+        <f>SUMIF(K9:K22,"D",J9:J22)</f>
+        <v>66.900000000000006</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13">
+      <c r="I30" t="s">
         <v>40</v>
+      </c>
+      <c r="J30">
+        <f>SUMIF(K9:K22,"F",J9:J22)</f>
+        <v>114.6</v>
       </c>
     </row>
   </sheetData>
